--- a/Mifos Automation Excels/Client/4727-ACTIVATEON01JAN2015-DEPOSIT200on15JAN2015-WITHDRAW100on01FEB2015-POSTINTEREST-VIEWJRNALENTRY.xlsx
+++ b/Mifos Automation Excels/Client/4727-ACTIVATEON01JAN2015-DEPOSIT200on15JAN2015-WITHDRAW100on01FEB2015-POSTINTEREST-VIEWJRNALENTRY.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Interst_Posting2" sheetId="10" r:id="rId10"/>
     <sheet name="Interst_Posting3" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -440,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -634,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,42 +1152,41 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>8</v>
+      <c r="A4">
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>42036</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6">
-        <v>100</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>2.14</v>
+      </c>
       <c r="F4" s="6">
-        <v>200</v>
+        <v>202.14</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>42036</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>2.14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>202.14</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
